--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/07_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/07_LibFormula.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\libFormula SIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\07_LIB_EWS_IT\libFormula SIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
@@ -3337,9 +3337,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3457,25 +3460,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3497,9 +3490,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/07_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/07_LibFormula.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="143">
   <si>
     <t>Action</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>INDICATOR_264</t>
+  </si>
+  <si>
+    <t>INDICATOR_79</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1941,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
@@ -1958,7 +1961,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
@@ -1975,7 +1978,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
@@ -1992,7 +1995,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
@@ -2009,7 +2012,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
@@ -2026,7 +2029,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
@@ -2043,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
@@ -2060,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
@@ -2077,7 +2080,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
@@ -2094,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
@@ -2111,7 +2114,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
@@ -2128,7 +2131,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>14</v>
@@ -2145,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -2162,7 +2165,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
@@ -2179,7 +2182,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
@@ -2196,7 +2199,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -2213,7 +2216,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
@@ -2230,7 +2233,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
@@ -2247,7 +2250,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
@@ -2264,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>14</v>
@@ -2281,7 +2284,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>14</v>
@@ -2298,7 +2301,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
@@ -2315,7 +2318,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
@@ -2332,7 +2335,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>14</v>
@@ -2349,7 +2352,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>14</v>
@@ -2366,7 +2369,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>14</v>
@@ -2383,7 +2386,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>14</v>
@@ -2400,7 +2403,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>14</v>
@@ -2417,7 +2420,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>14</v>
@@ -2434,7 +2437,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>14</v>
@@ -2451,7 +2454,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>14</v>
@@ -2468,7 +2471,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>14</v>
@@ -2485,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>14</v>
@@ -2502,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>14</v>
@@ -2519,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>14</v>
@@ -2536,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>14</v>
@@ -2553,7 +2556,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>14</v>
@@ -2570,7 +2573,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>14</v>
@@ -2587,7 +2590,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>14</v>
@@ -2604,7 +2607,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>14</v>
@@ -2621,7 +2624,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>14</v>
@@ -2638,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>14</v>
@@ -2655,7 +2658,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>14</v>
@@ -2672,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>14</v>
@@ -2689,7 +2692,7 @@
         <v>16</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>14</v>
@@ -2706,7 +2709,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>14</v>
@@ -2723,7 +2726,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>14</v>
@@ -2740,7 +2743,7 @@
         <v>16</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>14</v>
@@ -2757,7 +2760,7 @@
         <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>14</v>
@@ -2774,7 +2777,7 @@
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>14</v>
@@ -2791,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>14</v>
@@ -2808,7 +2811,7 @@
         <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>14</v>
@@ -2825,7 +2828,7 @@
         <v>16</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>14</v>
@@ -2842,7 +2845,7 @@
         <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>14</v>
@@ -2859,7 +2862,7 @@
         <v>16</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>14</v>
@@ -2876,7 +2879,7 @@
         <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>14</v>
@@ -2893,7 +2896,7 @@
         <v>16</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>14</v>
@@ -2910,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>14</v>
@@ -2927,7 +2930,7 @@
         <v>16</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>14</v>
@@ -2944,7 +2947,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>14</v>
@@ -2961,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>14</v>
@@ -2978,7 +2981,7 @@
         <v>16</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>14</v>
@@ -2995,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>14</v>
@@ -3012,7 +3015,7 @@
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
@@ -3029,7 +3032,7 @@
         <v>16</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>14</v>
@@ -3046,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>14</v>
@@ -3063,7 +3066,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>14</v>
@@ -3080,7 +3083,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>14</v>
@@ -3097,7 +3100,7 @@
         <v>16</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>14</v>
@@ -3114,7 +3117,7 @@
         <v>16</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>14</v>
@@ -3131,7 +3134,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>14</v>
@@ -3148,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>14</v>
@@ -3165,7 +3168,7 @@
         <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>14</v>
@@ -3182,7 +3185,7 @@
         <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>14</v>
@@ -3199,7 +3202,7 @@
         <v>16</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>14</v>
@@ -3216,7 +3219,7 @@
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>14</v>
@@ -3233,7 +3236,7 @@
         <v>16</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>14</v>
@@ -3250,7 +3253,7 @@
         <v>16</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>14</v>
@@ -3267,7 +3270,7 @@
         <v>16</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>14</v>
@@ -3284,12 +3287,29 @@
         <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3337,6 +3357,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3345,7 +3371,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -3459,13 +3485,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3473,7 +3508,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3487,19 +3522,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/07_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/07_LibFormula.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="154">
   <si>
     <t>Action</t>
   </si>
@@ -532,6 +532,39 @@
   </si>
   <si>
     <t>INDICATOR_79</t>
+  </si>
+  <si>
+    <t>INDICATOR_24</t>
+  </si>
+  <si>
+    <t>INDICATOR_25</t>
+  </si>
+  <si>
+    <t>INDICATOR_26</t>
+  </si>
+  <si>
+    <t>INDICATOR_27</t>
+  </si>
+  <si>
+    <t>INDICATOR_28</t>
+  </si>
+  <si>
+    <t>INDICATOR_29</t>
+  </si>
+  <si>
+    <t>INDICATOR_30</t>
+  </si>
+  <si>
+    <t>INDICATOR_31</t>
+  </si>
+  <si>
+    <t>INDICATOR_32</t>
+  </si>
+  <si>
+    <t>INDICATOR_34</t>
+  </si>
+  <si>
+    <t>INDICATOR_35</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1637,8 +1670,8 @@
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>33</v>
+      <c r="C29" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
@@ -1654,8 +1687,8 @@
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>46</v>
+      <c r="C30" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
@@ -1671,8 +1704,8 @@
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
+      <c r="C31" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
@@ -1688,8 +1721,8 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
+      <c r="C32" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
@@ -1705,8 +1738,8 @@
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>48</v>
+      <c r="C33" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
@@ -1722,8 +1755,8 @@
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>49</v>
+      <c r="C34" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>14</v>
@@ -1739,8 +1772,8 @@
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
+      <c r="C35" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>14</v>
@@ -1756,8 +1789,8 @@
       <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>51</v>
+      <c r="C36" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
@@ -1773,8 +1806,8 @@
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>52</v>
+      <c r="C37" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>14</v>
@@ -1791,7 +1824,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
@@ -1808,7 +1841,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1824,8 +1857,8 @@
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>55</v>
+      <c r="C40" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1842,7 +1875,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
@@ -1859,7 +1892,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
@@ -1876,7 +1909,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
@@ -1893,7 +1926,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
@@ -1910,7 +1943,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
@@ -1927,7 +1960,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
@@ -1944,7 +1977,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
@@ -1961,7 +1994,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
@@ -1978,7 +2011,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
@@ -1995,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
@@ -2012,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
@@ -2029,7 +2062,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
@@ -2046,7 +2079,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
@@ -2063,7 +2096,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
@@ -2080,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
@@ -2097,7 +2130,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
@@ -2114,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
@@ -2131,7 +2164,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>14</v>
@@ -2148,7 +2181,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -2165,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
@@ -2182,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
@@ -2199,7 +2232,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -2216,7 +2249,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
@@ -2233,7 +2266,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
@@ -2250,7 +2283,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
@@ -2267,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>14</v>
@@ -2284,7 +2317,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>14</v>
@@ -2301,7 +2334,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
@@ -2318,7 +2351,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
@@ -2335,7 +2368,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>14</v>
@@ -2352,7 +2385,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>14</v>
@@ -2369,7 +2402,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>14</v>
@@ -2386,7 +2419,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>14</v>
@@ -2403,7 +2436,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>14</v>
@@ -2420,7 +2453,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>14</v>
@@ -2437,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>14</v>
@@ -2454,7 +2487,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>14</v>
@@ -2471,7 +2504,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>14</v>
@@ -2488,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>14</v>
@@ -2505,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>14</v>
@@ -2522,7 +2555,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>14</v>
@@ -2539,7 +2572,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>14</v>
@@ -2556,7 +2589,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>14</v>
@@ -2573,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>14</v>
@@ -2590,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>14</v>
@@ -2607,7 +2640,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>14</v>
@@ -2624,7 +2657,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>14</v>
@@ -2641,7 +2674,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>14</v>
@@ -2658,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>14</v>
@@ -2675,7 +2708,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>14</v>
@@ -2692,7 +2725,7 @@
         <v>16</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>14</v>
@@ -2709,7 +2742,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>14</v>
@@ -2726,7 +2759,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>14</v>
@@ -2743,7 +2776,7 @@
         <v>16</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>14</v>
@@ -2760,7 +2793,7 @@
         <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>14</v>
@@ -2777,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>14</v>
@@ -2794,7 +2827,7 @@
         <v>16</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>14</v>
@@ -2811,7 +2844,7 @@
         <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>14</v>
@@ -2828,7 +2861,7 @@
         <v>16</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>14</v>
@@ -2845,7 +2878,7 @@
         <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>14</v>
@@ -2862,7 +2895,7 @@
         <v>16</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>14</v>
@@ -2879,7 +2912,7 @@
         <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>14</v>
@@ -2896,7 +2929,7 @@
         <v>16</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>14</v>
@@ -2913,7 +2946,7 @@
         <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>14</v>
@@ -2930,7 +2963,7 @@
         <v>16</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>14</v>
@@ -2947,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>14</v>
@@ -2964,7 +2997,7 @@
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>14</v>
@@ -2981,7 +3014,7 @@
         <v>16</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>14</v>
@@ -2998,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>14</v>
@@ -3015,7 +3048,7 @@
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
@@ -3032,7 +3065,7 @@
         <v>16</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>14</v>
@@ -3049,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>14</v>
@@ -3066,7 +3099,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>14</v>
@@ -3083,7 +3116,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>14</v>
@@ -3100,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>14</v>
@@ -3117,7 +3150,7 @@
         <v>16</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>14</v>
@@ -3134,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>14</v>
@@ -3151,7 +3184,7 @@
         <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>14</v>
@@ -3168,7 +3201,7 @@
         <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>14</v>
@@ -3185,7 +3218,7 @@
         <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>14</v>
@@ -3202,7 +3235,7 @@
         <v>16</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>14</v>
@@ -3219,7 +3252,7 @@
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>14</v>
@@ -3236,7 +3269,7 @@
         <v>16</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>14</v>
@@ -3253,7 +3286,7 @@
         <v>16</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>14</v>
@@ -3270,7 +3303,7 @@
         <v>16</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>14</v>
@@ -3287,7 +3320,7 @@
         <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>14</v>
@@ -3304,12 +3337,199 @@
         <v>16</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="E138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3357,21 +3577,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -3485,17 +3690,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3509,17 +3730,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>